--- a/LOGS/cb5a8c40-b4b8-4778-a3db-58160e590cb0/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/cb5a8c40-b4b8-4778-a3db-58160e590cb0/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -13,20 +13,26 @@
     <sheet name="11__244abe48-95a6-38" sheetId="4" r:id="rId4"/>
     <sheet name="12__11861af5-5316-33" sheetId="5" r:id="rId5"/>
     <sheet name="14__b1a9f356-7fb6-3a" sheetId="6" r:id="rId6"/>
-    <sheet name="15__f7c9c378-26d0-34" sheetId="7" r:id="rId7"/>
-    <sheet name="16__894762b3-0466-3b" sheetId="8" r:id="rId8"/>
-    <sheet name="16__2a7042d4-4a97-3c" sheetId="9" r:id="rId9"/>
-    <sheet name="17__a559bd49-7341-39" sheetId="10" r:id="rId10"/>
-    <sheet name="18__e4f11426-201b-30" sheetId="11" r:id="rId11"/>
-    <sheet name="19__30edcff6-0c5d-3b" sheetId="12" r:id="rId12"/>
-    <sheet name="19__c385dc9a-7b4a-38" sheetId="13" r:id="rId13"/>
+    <sheet name="7__502fa075-585e-30c" sheetId="7" r:id="rId7"/>
+    <sheet name="7__4e315c1b-b2e8-3c9" sheetId="8" r:id="rId8"/>
+    <sheet name="7__e0c4bc61-0635-370" sheetId="9" r:id="rId9"/>
+    <sheet name="7__2d5dcd12-d0ce-37c" sheetId="10" r:id="rId10"/>
+    <sheet name="15__f7c9c378-26d0-34" sheetId="11" r:id="rId11"/>
+    <sheet name="16__894762b3-0466-3b" sheetId="12" r:id="rId12"/>
+    <sheet name="16__2a7042d4-4a97-3c" sheetId="13" r:id="rId13"/>
+    <sheet name="17__a559bd49-7341-39" sheetId="14" r:id="rId14"/>
+    <sheet name="18__e4f11426-201b-30" sheetId="15" r:id="rId15"/>
+    <sheet name="19__30edcff6-0c5d-3b" sheetId="16" r:id="rId16"/>
+    <sheet name="19__c385dc9a-7b4a-38" sheetId="17" r:id="rId17"/>
+    <sheet name="4__4804b444-e9a6-3c0" sheetId="18" r:id="rId18"/>
+    <sheet name="6__4804b444-e9a6-3c0" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="143">
   <si>
     <t>rows</t>
   </si>
@@ -40,6 +46,9 @@
     <t>value</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>None Cash on hand</t>
   </si>
   <si>
@@ -49,6 +58,9 @@
     <t>None Cash and cash equivalents in the statement of cash flows</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>Current Trade receivables nan</t>
   </si>
   <si>
@@ -61,6 +73,9 @@
     <t>Current Total nan</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Vehicles At cost</t>
   </si>
   <si>
@@ -88,6 +103,9 @@
     <t>Spare parts Stock in transit at cost</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>Current Bond deposits</t>
   </si>
   <si>
@@ -97,6 +115,9 @@
     <t>Current Total</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Cost Balance at 1 April 2022</t>
   </si>
   <si>
@@ -145,6 +166,9 @@
     <t>Capital works in progress Capital works in progress Total</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>Software At cost</t>
   </si>
   <si>
@@ -172,6 +196,114 @@
     <t>Carrying amounts At 31 March 2023</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>None Provisions</t>
+  </si>
+  <si>
+    <t>None Property, plant and equipment</t>
+  </si>
+  <si>
+    <t>None Prepayments</t>
+  </si>
+  <si>
+    <t>None Tax losses carried forward</t>
+  </si>
+  <si>
+    <t>Tax assets (liabilities) before set-off</t>
+  </si>
+  <si>
+    <t>Tax assets (liabilities) before Set-off of tax</t>
+  </si>
+  <si>
+    <t>Tax assets (liabilities) before Net tax assets</t>
+  </si>
+  <si>
+    <t>Recognised in profit or loss Balance at 1 April 2022 Balance at 1 April 2022</t>
+  </si>
+  <si>
+    <t>Recognised in profit or loss Recognised in profit or loss Recognised in profit or loss</t>
+  </si>
+  <si>
+    <t>Recognised in profit or loss Recognised in profit or loss Net</t>
+  </si>
+  <si>
+    <t>Recognised in profit or loss Deferred tax assets</t>
+  </si>
+  <si>
+    <t>Recognised in profit or loss Deferred tax liabilities Deferred tax liabilities</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Current tax expense Current year</t>
+  </si>
+  <si>
+    <t>Current tax expense Adjustment for prior years</t>
+  </si>
+  <si>
+    <t>Current tax expense Total</t>
+  </si>
+  <si>
+    <t>Deferred tax expense/(benefit) Origination and reversal of temporary differences</t>
+  </si>
+  <si>
+    <t>Deferred tax expense/(benefit) Total</t>
+  </si>
+  <si>
+    <t>Deferred tax expense/(benefit) Total income tax expense</t>
+  </si>
+  <si>
+    <t>None Profit before income tax</t>
+  </si>
+  <si>
+    <t>None Tax using Company's domestic tax rate 30% (2022: 30%)</t>
+  </si>
+  <si>
+    <t>None Non-deductible expenses</t>
+  </si>
+  <si>
+    <t>None Origination and reversal of temporary differences</t>
+  </si>
+  <si>
+    <t>None Changes in estimates related to prior years</t>
+  </si>
+  <si>
+    <t>None Income tax expense</t>
+  </si>
+  <si>
+    <t>None Provisions 5963695 244625</t>
+  </si>
+  <si>
+    <t>None Property, plant and equipment (809,097) 116103</t>
+  </si>
+  <si>
+    <t>None Prepayments (250,215) nan</t>
+  </si>
+  <si>
+    <t>None Tax losses carried forward 33377 nan</t>
+  </si>
+  <si>
+    <t>Tax assets (liabilities) before set-off 4937760 360728</t>
+  </si>
+  <si>
+    <t>Tax assets (liabilities) before Set-off of tax nan nan</t>
+  </si>
+  <si>
+    <t>Tax assets (liabilities) before Net tax assets nan nan</t>
+  </si>
+  <si>
+    <t>Deferred tax assets Net</t>
+  </si>
+  <si>
+    <t>Deferred tax assets Deferred tax assets</t>
+  </si>
+  <si>
+    <t>Deferred tax liabilities Deferred tax liabilities</t>
+  </si>
+  <si>
     <t>Current Trade and other payables nan</t>
   </si>
   <si>
@@ -193,6 +325,9 @@
     <t>Current Other creditors and accruals nan</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>None Related party loan AUD 2023</t>
   </si>
   <si>
@@ -208,6 +343,9 @@
     <t>Carrying amount</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>Current Related party loan 20</t>
   </si>
   <si>
@@ -247,6 +385,9 @@
     <t>Movement in provisions: Balance at 31 March 2023 6563463 20088909</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>Current Liability for annual leave</t>
   </si>
   <si>
@@ -262,10 +403,64 @@
     <t>Non-current Total</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>None Fully paid ordinary shares at start of year</t>
   </si>
   <si>
     <t>None Fully paid ordinary shares at end of year</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>None Trucks and buses</t>
+  </si>
+  <si>
+    <t>None Spare parts</t>
+  </si>
+  <si>
+    <t>None Other</t>
+  </si>
+  <si>
+    <t>None Total</t>
+  </si>
+  <si>
+    <t>Timing of revenue recognition InAUD</t>
+  </si>
+  <si>
+    <t>Timing of revenue recognition Products transferred at a point in time</t>
+  </si>
+  <si>
+    <t>Timing of revenue recognition Total</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>None Interestincome using the effective interest rate method</t>
+  </si>
+  <si>
+    <t>None Finance income</t>
+  </si>
+  <si>
+    <t>Interest expense using the effective interest rate method on: Lease liabilities</t>
+  </si>
+  <si>
+    <t>Interest expense using the effective interest rate method on: Loans and borrowings</t>
+  </si>
+  <si>
+    <t>Interest expense using the effective interest rate method on: Net foreign exchange loss</t>
+  </si>
+  <si>
+    <t>Interest expense using the effective interest rate method on: Finance costs</t>
+  </si>
+  <si>
+    <t>Interest expense using the effective interest rate method on: Net finance costs recognised in profit or loss</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -623,13 +818,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,10 +837,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -653,10 +851,13 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -664,10 +865,13 @@
       <c r="D3">
         <v>17144081</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -675,10 +879,13 @@
       <c r="D4">
         <v>17144081</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -686,10 +893,13 @@
       <c r="D5">
         <v>1588</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -697,16 +907,22 @@
       <c r="D6">
         <v>13193240</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>13194828</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -716,13 +932,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,65 +951,101 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>6563463</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>6208320</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
       </c>
       <c r="C3">
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>20088909</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-692994</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
       </c>
       <c r="C4">
         <v>2023</v>
       </c>
       <c r="D4">
-        <v>26652372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-250215</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
       </c>
       <c r="C5">
         <v>2023</v>
       </c>
       <c r="D5">
-        <v>520000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>33377</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
       </c>
       <c r="C6">
         <v>2023</v>
       </c>
       <c r="D6">
-        <v>520000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>5298488</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -801,181 +1053,263 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
       </c>
       <c r="C8">
         <v>2023</v>
       </c>
       <c r="D8">
-        <v>520000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>5298488</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
       </c>
       <c r="C9">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>6208320</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
       </c>
       <c r="C10">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
       </c>
       <c r="C11">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
       </c>
       <c r="C12">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D12">
-        <v>520000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>33377</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
       </c>
       <c r="C13">
         <v>2022</v>
       </c>
       <c r="D13">
-        <v>7248723</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>6241697</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
       <c r="C14">
         <v>2022</v>
       </c>
       <c r="D14">
-        <v>21052614</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-943209</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
       </c>
       <c r="C15">
         <v>2022</v>
       </c>
       <c r="D15">
-        <v>28301337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>5298488</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
       </c>
       <c r="C16">
         <v>2022</v>
       </c>
       <c r="D16">
-        <v>520000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
       </c>
       <c r="C17">
         <v>2022</v>
       </c>
       <c r="D17">
-        <v>520000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-692994</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
       <c r="C18">
         <v>2022</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-250215</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
       </c>
       <c r="C19">
         <v>2022</v>
       </c>
       <c r="D19">
-        <v>28821337</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
       </c>
       <c r="C20">
         <v>2022</v>
       </c>
       <c r="D20">
-        <v>46444913</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-943209</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
       </c>
       <c r="C21">
         <v>2022</v>
       </c>
       <c r="D21">
-        <v>-2034580</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>943209</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
       </c>
       <c r="C22">
         <v>2022</v>
       </c>
       <c r="D22">
-        <v>-46059298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23">
-        <v>2022</v>
-      </c>
-      <c r="D23">
-        <v>27172372</v>
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -985,13 +1319,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,137 +1338,232 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>1272474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>7802444</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C3">
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>805340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>333926</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>2023</v>
       </c>
       <c r="D4">
-        <v>434533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>34427416</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>2023</v>
       </c>
       <c r="D5">
-        <v>2512347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>2795414</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>2023</v>
       </c>
       <c r="D6">
-        <v>677679</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>754341</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C7">
         <v>2023</v>
       </c>
       <c r="D7">
-        <v>677679</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>5293901</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D8">
-        <v>1386692</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>2441269</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D9">
-        <v>576678</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>53848711</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C10">
         <v>2022</v>
       </c>
       <c r="D10">
-        <v>250005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>8166254</v>
+      </c>
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="C11">
         <v>2022</v>
       </c>
       <c r="D11">
-        <v>2213375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>785740</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C12">
         <v>2022</v>
       </c>
       <c r="D12">
-        <v>1038838</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>44920374</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>2022</v>
       </c>
       <c r="D13">
-        <v>1038838</v>
+        <v>2471759</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14">
+        <v>2022</v>
+      </c>
+      <c r="D14">
+        <v>503541</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15">
+        <v>2022</v>
+      </c>
+      <c r="D15">
+        <v>3376358</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16">
+        <v>2022</v>
+      </c>
+      <c r="D16">
+        <v>6047112</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>2022</v>
+      </c>
+      <c r="D17">
+        <v>66271138</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1143,6 +1572,890 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>70000000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>70948462</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>140948462</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>70000000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6">
+        <v>70948462</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7">
+        <v>140948462</v>
+      </c>
+      <c r="E7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+      <c r="D8">
+        <v>70006039</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>43733593</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10">
+        <v>113739632</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11">
+        <v>70000000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12">
+        <v>41234712</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>111234712</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>70000000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>70948462</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>140948462</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>70000000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6">
+        <v>41234712</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7">
+        <v>111234712</v>
+      </c>
+      <c r="E7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>6563463</v>
+      </c>
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>20088909</v>
+      </c>
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>26652372</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>520000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>520000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
+      </c>
+      <c r="D8">
+        <v>520000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9">
+        <v>2023</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10">
+        <v>2023</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11">
+        <v>2023</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12">
+        <v>2023</v>
+      </c>
+      <c r="D12">
+        <v>520000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>7248723</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14">
+        <v>2022</v>
+      </c>
+      <c r="D14">
+        <v>21052614</v>
+      </c>
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15">
+        <v>2022</v>
+      </c>
+      <c r="D15">
+        <v>28301337</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16">
+        <v>2022</v>
+      </c>
+      <c r="D16">
+        <v>520000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17">
+        <v>2022</v>
+      </c>
+      <c r="D17">
+        <v>520000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18">
+        <v>2022</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19">
+        <v>2022</v>
+      </c>
+      <c r="D19">
+        <v>28821337</v>
+      </c>
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20">
+        <v>2022</v>
+      </c>
+      <c r="D20">
+        <v>46444913</v>
+      </c>
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21">
+        <v>2022</v>
+      </c>
+      <c r="D21">
+        <v>-2034580</v>
+      </c>
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22">
+        <v>2022</v>
+      </c>
+      <c r="D22">
+        <v>-46059298</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23">
+        <v>2022</v>
+      </c>
+      <c r="D23">
+        <v>27172372</v>
+      </c>
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>1272474</v>
+      </c>
+      <c r="E2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>805340</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>434533</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>2512347</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>677679</v>
+      </c>
+      <c r="E6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>677679</v>
+      </c>
+      <c r="E7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+      <c r="D8">
+        <v>1386692</v>
+      </c>
+      <c r="E8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>576678</v>
+      </c>
+      <c r="E9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10">
+        <v>250005</v>
+      </c>
+      <c r="E10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11">
+        <v>2213375</v>
+      </c>
+      <c r="E11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12">
+        <v>1038838</v>
+      </c>
+      <c r="E12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>1038838</v>
+      </c>
+      <c r="E13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1154,15 +2467,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1175,10 +2488,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1186,10 +2502,13 @@
       <c r="D2">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1197,10 +2516,13 @@
       <c r="D3">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -1208,16 +2530,474 @@
       <c r="D4">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
       <c r="D5">
         <v>10000000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>443834452</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>81384684</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>808212</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>526027348</v>
+      </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>2023</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>526027348</v>
+      </c>
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
+      </c>
+      <c r="D8">
+        <v>526027348</v>
+      </c>
+      <c r="E8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>458609986</v>
+      </c>
+      <c r="E9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10">
+        <v>70905994</v>
+      </c>
+      <c r="E10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11">
+        <v>611782</v>
+      </c>
+      <c r="E11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12">
+        <v>530127762</v>
+      </c>
+      <c r="E12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>2022</v>
+      </c>
+      <c r="E13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14">
+        <v>2022</v>
+      </c>
+      <c r="D14">
+        <v>530127762</v>
+      </c>
+      <c r="E14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15">
+        <v>2022</v>
+      </c>
+      <c r="D15">
+        <v>530127762</v>
+      </c>
+      <c r="E15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>765138</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>2841903</v>
+      </c>
+      <c r="E5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>3607067</v>
+      </c>
+      <c r="E7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
+      </c>
+      <c r="D8">
+        <v>-3607067</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11">
+        <v>697145</v>
+      </c>
+      <c r="E11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12">
+        <v>469432</v>
+      </c>
+      <c r="E12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14">
+        <v>2022</v>
+      </c>
+      <c r="D14">
+        <v>1166577</v>
+      </c>
+      <c r="E14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15">
+        <v>2022</v>
+      </c>
+      <c r="D15">
+        <v>-1166529</v>
+      </c>
+      <c r="E15" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1227,13 +3007,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1246,10 +3026,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1257,10 +3040,13 @@
       <c r="D2">
         <v>125686659</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1268,10 +3054,13 @@
       <c r="D3">
         <v>679869</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1279,10 +3068,13 @@
       <c r="D4">
         <v>32014</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1290,10 +3082,13 @@
       <c r="D5">
         <v>126398542</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1301,10 +3096,13 @@
       <c r="D6">
         <v>120689684</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -1312,10 +3110,13 @@
       <c r="D7">
         <v>563747</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -1323,16 +3124,22 @@
       <c r="D8">
         <v>35876</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
       <c r="D9">
         <v>121289307</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1342,13 +3149,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1361,10 +3168,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1372,10 +3182,13 @@
       <c r="D2">
         <v>51912572</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1383,10 +3196,13 @@
       <c r="D3">
         <v>110000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1394,10 +3210,13 @@
       <c r="D4">
         <v>52022572</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1405,10 +3224,13 @@
       <c r="D5">
         <v>18689399</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1416,10 +3238,13 @@
       <c r="D6">
         <v>-474531</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1427,10 +3252,13 @@
       <c r="D7">
         <v>18214868</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1438,10 +3266,13 @@
       <c r="D8">
         <v>2052535</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -1449,10 +3280,13 @@
       <c r="D9">
         <v>275665</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -1460,10 +3294,13 @@
       <c r="D10">
         <v>46946929</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -1471,10 +3308,13 @@
       <c r="D11">
         <v>119512569</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -1482,10 +3322,13 @@
       <c r="D12">
         <v>52881859</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -1493,10 +3336,13 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1504,10 +3350,13 @@
       <c r="D14">
         <v>52881859</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -1515,10 +3364,13 @@
       <c r="D15">
         <v>14367964</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -1526,10 +3378,13 @@
       <c r="D16">
         <v>-379530</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -1537,10 +3392,13 @@
       <c r="D17">
         <v>13988434</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -1548,10 +3406,13 @@
       <c r="D18">
         <v>1844631</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -1559,10 +3420,13 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -1570,16 +3434,22 @@
       <c r="D20">
         <v>42775001</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>2022</v>
       </c>
       <c r="D21">
         <v>111489925</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1589,13 +3459,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1608,10 +3478,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1619,10 +3492,13 @@
       <c r="D2">
         <v>23856</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1630,10 +3506,13 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1641,10 +3520,13 @@
       <c r="D4">
         <v>23856</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1652,10 +3534,13 @@
       <c r="D5">
         <v>27876</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1663,16 +3548,22 @@
       <c r="D6">
         <v>1513</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>29389</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1682,13 +3573,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1701,13 +3592,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1715,13 +3609,16 @@
       <c r="D2">
         <v>3756486</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1729,13 +3626,16 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1743,13 +3643,16 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1757,27 +3660,33 @@
       <c r="D5">
         <v>3756486</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="C6">
-        <v>2023</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1785,13 +3694,16 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1799,13 +3711,16 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -1813,13 +3728,16 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1827,13 +3745,16 @@
       <c r="D10">
         <v>3756486</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -1841,13 +3762,16 @@
       <c r="D11">
         <v>3756486</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -1855,13 +3779,16 @@
       <c r="D12">
         <v>5056574</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -1869,13 +3796,16 @@
       <c r="D13">
         <v>91317</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -1883,13 +3813,16 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -1897,13 +3830,16 @@
       <c r="D15">
         <v>5147891</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -1911,13 +3847,16 @@
       <c r="D16">
         <v>2392768</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -1925,13 +3864,16 @@
       <c r="D17">
         <v>141116</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -1939,13 +3881,16 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -1953,13 +3898,16 @@
       <c r="D19">
         <v>2533884</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -1967,13 +3915,16 @@
       <c r="D20">
         <v>2663806</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -1981,13 +3932,16 @@
       <c r="D21">
         <v>2614007</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>2023</v>
@@ -1995,13 +3949,16 @@
       <c r="D22">
         <v>4600445</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -2009,13 +3966,16 @@
       <c r="D23">
         <v>1067939</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -2023,13 +3983,16 @@
       <c r="D24">
         <v>-29330</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -2037,13 +4000,16 @@
       <c r="D25">
         <v>5639054</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>2023</v>
@@ -2051,13 +4017,16 @@
       <c r="D26">
         <v>2319803</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>2023</v>
@@ -2065,13 +4034,16 @@
       <c r="D27">
         <v>507865</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -2079,13 +4051,16 @@
       <c r="D28">
         <v>-29074</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>2023</v>
@@ -2093,13 +4068,16 @@
       <c r="D29">
         <v>2798594</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -2107,13 +4085,16 @@
       <c r="D30">
         <v>2280642</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C31">
         <v>2023</v>
@@ -2121,13 +4102,16 @@
       <c r="D31">
         <v>2840460</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C32">
         <v>2023</v>
@@ -2135,13 +4119,16 @@
       <c r="D32">
         <v>2468809</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C33">
         <v>2023</v>
@@ -2149,13 +4136,16 @@
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C34">
         <v>2023</v>
@@ -2163,13 +4153,16 @@
       <c r="D34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C35">
         <v>2023</v>
@@ -2177,13 +4170,16 @@
       <c r="D35">
         <v>2468809</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C36">
         <v>2023</v>
@@ -2191,13 +4187,16 @@
       <c r="D36">
         <v>1156508</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <v>2023</v>
@@ -2205,13 +4204,16 @@
       <c r="D37">
         <v>107050</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C38">
         <v>2023</v>
@@ -2219,13 +4221,16 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C39">
         <v>2023</v>
@@ -2233,13 +4238,16 @@
       <c r="D39">
         <v>1263558</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C40">
         <v>2022</v>
@@ -2247,13 +4255,16 @@
       <c r="D40">
         <v>1312301</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C41">
         <v>2023</v>
@@ -2261,13 +4272,16 @@
       <c r="D41">
         <v>1205251</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <v>2023</v>
@@ -2275,13 +4289,16 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C43">
         <v>2023</v>
@@ -2289,13 +4306,16 @@
       <c r="D43">
         <v>39049</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C44">
         <v>2023</v>
@@ -2303,13 +4323,16 @@
       <c r="D44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C45">
         <v>2023</v>
@@ -2317,13 +4340,16 @@
       <c r="D45">
         <v>168072</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C46">
         <v>2023</v>
@@ -2331,13 +4357,16 @@
       <c r="D46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C47">
         <v>2023</v>
@@ -2345,13 +4374,16 @@
       <c r="D47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C48">
         <v>2023</v>
@@ -2359,13 +4391,16 @@
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C49">
         <v>2023</v>
@@ -2373,13 +4408,16 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C50">
         <v>2022</v>
@@ -2387,13 +4425,16 @@
       <c r="D50">
         <v>129023</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C51">
         <v>2023</v>
@@ -2401,13 +4442,16 @@
       <c r="D51">
         <v>168072</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C52">
         <v>2023</v>
@@ -2415,13 +4459,16 @@
       <c r="D52">
         <v>16011337</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C53">
         <v>2023</v>
@@ -2429,13 +4476,16 @@
       <c r="D53">
         <v>1198305</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C54">
         <v>2023</v>
@@ -2443,13 +4493,16 @@
       <c r="D54">
         <v>-29330</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C55">
         <v>2023</v>
@@ -2457,13 +4510,16 @@
       <c r="D55">
         <v>17180312</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C56">
         <v>2023</v>
@@ -2471,13 +4527,16 @@
       <c r="D56">
         <v>5869079</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C57">
         <v>2023</v>
@@ -2485,13 +4544,16 @@
       <c r="D57">
         <v>756031</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C58">
         <v>2023</v>
@@ -2499,13 +4561,16 @@
       <c r="D58">
         <v>-29074</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C59">
         <v>2023</v>
@@ -2513,13 +4578,16 @@
       <c r="D59">
         <v>6596036</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C60">
         <v>2022</v>
@@ -2527,19 +4595,25 @@
       <c r="D60">
         <v>10142258</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C61">
         <v>2023</v>
       </c>
       <c r="D61">
         <v>10584276</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2549,13 +4623,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2568,10 +4642,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2579,10 +4656,13 @@
       <c r="D2">
         <v>190619</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2590,10 +4670,13 @@
       <c r="D3">
         <v>-85500</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2601,10 +4684,13 @@
       <c r="D4">
         <v>105119</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2612,10 +4698,13 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -2623,10 +4712,13 @@
       <c r="D6">
         <v>128219</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -2634,10 +4726,13 @@
       <c r="D7">
         <v>62400</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -2645,10 +4740,13 @@
       <c r="D8">
         <v>190619</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -2656,10 +4754,13 @@
       <c r="D9">
         <v>48899</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -2667,10 +4768,13 @@
       <c r="D10">
         <v>36601</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -2678,10 +4782,13 @@
       <c r="D11">
         <v>85500</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -2689,10 +4796,13 @@
       <c r="D12">
         <v>79320</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -2700,10 +4810,13 @@
       <c r="D13">
         <v>105119</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -2711,10 +4824,13 @@
       <c r="D14">
         <v>128219</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -2722,10 +4838,13 @@
       <c r="D15">
         <v>-48899</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -2733,10 +4852,13 @@
       <c r="D16">
         <v>79320</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -2744,10 +4866,13 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -2755,10 +4880,13 @@
       <c r="D18">
         <v>128219</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -2766,10 +4894,13 @@
       <c r="D19">
         <v>62400</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -2777,10 +4908,13 @@
       <c r="D20">
         <v>190619</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -2788,10 +4922,13 @@
       <c r="D21">
         <v>48899</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -2799,10 +4936,13 @@
       <c r="D22">
         <v>36601</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -2810,10 +4950,13 @@
       <c r="D23">
         <v>85500</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -2821,16 +4964,22 @@
       <c r="D24">
         <v>79320</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C25">
         <v>2022</v>
       </c>
       <c r="D25">
         <v>105119</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2840,13 +4989,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2859,181 +5008,603 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>7802444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>6208320</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
       </c>
       <c r="C3">
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>333926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-692994</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
       </c>
       <c r="C4">
         <v>2023</v>
       </c>
       <c r="D4">
-        <v>34427416</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-250215</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
       </c>
       <c r="C5">
         <v>2023</v>
       </c>
       <c r="D5">
-        <v>2795414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>33377</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
       </c>
       <c r="C6">
         <v>2023</v>
       </c>
       <c r="D6">
-        <v>754341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>5298488</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
       </c>
       <c r="C7">
         <v>2023</v>
       </c>
       <c r="D7">
-        <v>5293901</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
       </c>
       <c r="C8">
         <v>2023</v>
       </c>
       <c r="D8">
-        <v>2441269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
       </c>
       <c r="C9">
         <v>2023</v>
       </c>
       <c r="D9">
-        <v>53848711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-827521</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
       </c>
       <c r="C10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D10">
-        <v>8166254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>575485</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
       </c>
       <c r="C11">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D11">
-        <v>785740</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
       </c>
       <c r="C12">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D12">
-        <v>44920374</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-33377</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
       </c>
       <c r="C13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D13">
-        <v>2471759</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-285413</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
       </c>
       <c r="C14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D14">
-        <v>503541</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
       </c>
       <c r="C15">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D15">
-        <v>3376358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
       </c>
       <c r="C16">
         <v>2022</v>
       </c>
       <c r="D16">
-        <v>6047112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>5380799</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
       </c>
       <c r="C17">
         <v>2022</v>
       </c>
       <c r="D17">
-        <v>66271138</v>
+        <v>-117509</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18">
+        <v>2022</v>
+      </c>
+      <c r="D18">
+        <v>-250215</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19">
+        <v>2022</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20">
+        <v>2022</v>
+      </c>
+      <c r="D20">
+        <v>5013075</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21">
+        <v>2022</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22">
+        <v>2022</v>
+      </c>
+      <c r="D22">
+        <v>5013075</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23">
+        <v>2022</v>
+      </c>
+      <c r="D23">
+        <v>5380799</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24">
+        <v>2022</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25">
+        <v>2022</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
+        <v>2022</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27">
+        <v>2022</v>
+      </c>
+      <c r="D27">
+        <v>5380799</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28">
+        <v>2022</v>
+      </c>
+      <c r="D28">
+        <v>-367724</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29">
+        <v>2022</v>
+      </c>
+      <c r="D29">
+        <v>5013075</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30">
+        <v>2022</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31">
+        <v>2022</v>
+      </c>
+      <c r="D31">
+        <v>-117509</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32">
+        <v>2022</v>
+      </c>
+      <c r="D32">
+        <v>-250215</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33">
+        <v>2022</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34">
+        <v>2022</v>
+      </c>
+      <c r="D34">
+        <v>-367724</v>
+      </c>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35">
+        <v>2022</v>
+      </c>
+      <c r="D35">
+        <v>367724</v>
+      </c>
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36">
+        <v>2022</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3043,13 +5614,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3062,173 +5633,176 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>70000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>7126487</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>70948462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>1029155</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>2023</v>
       </c>
       <c r="D4">
-        <v>140948462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>8155642</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D5">
-        <v>70000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>285413</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D6">
-        <v>70948462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>285413</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C7">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D7">
-        <v>140948462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>8441055</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C8">
         <v>2022</v>
       </c>
       <c r="D8">
-        <v>70006039</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>5062081</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
       <c r="D9">
-        <v>43733593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>862248</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C10">
         <v>2022</v>
       </c>
       <c r="D10">
-        <v>113739632</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>5924329</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C11">
         <v>2022</v>
       </c>
       <c r="D11">
-        <v>70000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-360728</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C12">
         <v>2022</v>
       </c>
       <c r="D12">
-        <v>41234712</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-360728</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C13">
         <v>2022</v>
       </c>
       <c r="D13">
-        <v>111234712</v>
+        <v>5563601</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3238,13 +5812,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3257,71 +5831,176 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>70000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>21738319</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>70948462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>6521496</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>2023</v>
       </c>
       <c r="D4">
-        <v>140948462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>604991</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D5">
-        <v>70000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>285413</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D6">
-        <v>41234712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>1029155</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C7">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D7">
-        <v>111234712</v>
+        <v>8441055</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+      <c r="D8">
+        <v>16873606</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>5062081</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11">
+        <v>-360728</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12">
+        <v>862248</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>5563601</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
